--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3307900.946080762</v>
+        <v>3303888.336066771</v>
       </c>
     </row>
     <row r="7">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>298.427348354958</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>109.8090564294857</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657076</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>59.207474130211</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>120.7740905403535</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>79.76470074482921</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.36917500887014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>388.232792019426</v>
+        <v>34.68425471822098</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.784880221500639</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386348</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701335</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>185.404873121236</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634785</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>186.8063084124839</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>46.29306638367434</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>25.73194049497408</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>64.4060130769136</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>32.27552175740353</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>156.0235370972432</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>179.4515336021211</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>43.98166197004215</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>45.16086499484882</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>33.0162797694411</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>189.5765270689768</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.66234525555492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1537.086630593157</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C2" t="n">
-        <v>1168.124113652745</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D2" t="n">
-        <v>809.8584150459947</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4330,7 +4330,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4342,13 +4342,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X2" t="n">
-        <v>2313.82580263309</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y2" t="n">
-        <v>1923.686470657279</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064745</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223.6433230382936</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>223.6433230382936</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>223.6433230382936</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>223.6433230382936</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877106</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>444.4359021818237</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>444.4359021818237</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>444.4359021818237</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>223.6433230382936</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881544</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,10 +4564,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4576,43 +4576,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="6">
@@ -4640,19 +4640,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.5121164321834</v>
+        <v>518.445961844415</v>
       </c>
       <c r="C7" t="n">
-        <v>66.5121164321834</v>
+        <v>349.5097789165081</v>
       </c>
       <c r="D7" t="n">
-        <v>66.5121164321834</v>
+        <v>199.3931395041724</v>
       </c>
       <c r="E7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>128.5011820977088</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1918.208919851715</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C8" t="n">
-        <v>1549.246402911303</v>
+        <v>806.3384156653772</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.980704304553</v>
+        <v>448.0727170586267</v>
       </c>
       <c r="E8" t="n">
-        <v>805.1924517063085</v>
+        <v>448.0727170586267</v>
       </c>
       <c r="F8" t="n">
-        <v>798.246950957105</v>
+        <v>441.1272163094232</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4804,16 +4804,16 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4843,13 +4843,13 @@
         <v>2678.274518176916</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176916</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y8" t="n">
-        <v>2304.808759915837</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="9">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.2814163499066</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C10" t="n">
-        <v>528.3452334219998</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D10" t="n">
-        <v>528.3452334219998</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E10" t="n">
-        <v>380.4321398396066</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
         <v>66.5121164321834</v>
@@ -5007,7 +5007,7 @@
         <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746548</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="11">
@@ -5023,58 +5023,58 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5235,16 +5235,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.108204237296</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,70 +5260,70 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191923</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191923</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1499.692613034015</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1210.275442997055</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>982.2858920990371</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,40 +5512,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3012.408157764291</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>2843.471974836385</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>2693.355335424049</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>2693.355335424049</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>2693.355335424049</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>2526.159236138929</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>2384.447404981127</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>3932.255922673039</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V19" t="n">
-        <v>3932.255922673039</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W19" t="n">
-        <v>3642.838752636078</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>3414.849201738061</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>3194.056622594531</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5831,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>996.5276398439756</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>827.5914569160688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>677.474817503733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>529.5617239213399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>382.6717764234295</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1178.176104674215</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6268,7 +6268,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6305,28 +6305,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.101833227361</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.112282329344</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6958,16 +6958,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2526.197884723913</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7189,28 +7189,28 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7219,7 +7219,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>526.5658826424041</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>376.4492432300683</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>376.4492432300683</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7478,37 +7478,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273898</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711973</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057737</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1496.894412370891</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7733,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>782.8410298377091</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>964.4894946679489</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>66.73277020259198</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>65.33133491134413</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.9727699348912</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>260.4525338942701</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>101.1181252153552</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>130.4994612393478</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>72.68610972170686</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>181.727993418995</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>180.5487903941883</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>112.4047682534901</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>25.7450400779617</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>62.56111625485124</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>199.9223080965399</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700713.2648968009</v>
+        <v>700713.264896801</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778554</v>
+      </c>
+      <c r="C2" t="n">
+        <v>738937.5928778551</v>
+      </c>
+      <c r="D2" t="n">
         <v>738937.5928778555</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778549</v>
-      </c>
-      <c r="D2" t="n">
-        <v>738937.5928778556</v>
       </c>
       <c r="E2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210056</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="L2" t="n">
         <v>726431.9397210055</v>
       </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>726431.9397210054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210056</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210055</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="P2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>726431.9397210052</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>3.298474137503443e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>1.090910381595029e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687978</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26444,7 +26444,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26453,13 +26453,13 @@
         <v>15436.64000687971</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.8375151828</v>
+        <v>-791337.837515183</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124089</v>
+        <v>537406.9082124092</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124098</v>
+        <v>537406.9082124097</v>
       </c>
       <c r="E6" t="n">
-        <v>284460.3080828636</v>
+        <v>284112.9288285064</v>
       </c>
       <c r="F6" t="n">
-        <v>609872.7698902184</v>
+        <v>609525.3906358617</v>
       </c>
       <c r="G6" t="n">
-        <v>609872.7698902183</v>
+        <v>609525.3906358615</v>
       </c>
       <c r="H6" t="n">
-        <v>609872.7698902183</v>
+        <v>609525.3906358614</v>
       </c>
       <c r="I6" t="n">
-        <v>609872.7698902189</v>
+        <v>609525.3906358615</v>
       </c>
       <c r="J6" t="n">
-        <v>392341.567492941</v>
+        <v>391994.1882385844</v>
       </c>
       <c r="K6" t="n">
-        <v>609872.7698902186</v>
+        <v>609525.3906358615</v>
       </c>
       <c r="L6" t="n">
-        <v>609872.7698902189</v>
+        <v>609525.3906358618</v>
       </c>
       <c r="M6" t="n">
-        <v>524817.7419547068</v>
+        <v>524470.3627003499</v>
       </c>
       <c r="N6" t="n">
-        <v>609872.7698902186</v>
+        <v>609525.3906358617</v>
       </c>
       <c r="O6" t="n">
-        <v>609872.7698902185</v>
+        <v>609525.3906358617</v>
       </c>
       <c r="P6" t="n">
-        <v>609872.7698902183</v>
+        <v>609525.3906358615</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>4.123092671879304e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.123092671879304e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.123092671879304e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.123092671879304e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.123092671879304e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26792,7 +26792,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.123092671879304e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.123092671879304e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>108.4486973867534</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>259.9220442489834</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>86.21357389272025</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>244.4988012306541</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>306.4732379112244</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118.4628051730672</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>14.8817498053001</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>22.68893363402748</v>
+        <v>376.2374709352325</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.0470999604367</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,22 +28089,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.379841324214585e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,16 +28326,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28380,22 +28380,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.436340597801518e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29988,22 +29988,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,22 +30036,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>8.126322092888502e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>526.2989357562001</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>416.7024900153336</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,31 +32311,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>250.3097721075164</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>150.2061940096332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33192,7 +33192,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>290.6810969936921</v>
+        <v>716.7980286000566</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33432,7 +33432,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33496,31 +33496,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>698.850866879865</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,10 +33733,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.1165249313368</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33915,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34222,16 +34222,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34380,7 +34380,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34453,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9572236728667</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>285.3607779320004</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>116.3353646931862</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>18.86448192629984</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>159.3393849103587</v>
+        <v>585.4563165167233</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>556.7168329578467</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.13475084531527</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37870,16 +37870,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>248.1585668488238</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3303888.336066771</v>
+        <v>3305648.866369556</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8094272.4357463</v>
+        <v>8094272.435746299</v>
       </c>
     </row>
     <row r="11">
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>298.427348354958</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>153.7283917236263</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657076</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386351</v>
+        <v>58.28185552386407</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>173.0840193652039</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.76470074482921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414557</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1059,10 +1059,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044481</v>
       </c>
       <c r="E7" t="n">
-        <v>131.5522128412691</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>34.68425471822098</v>
+        <v>395.6096997429887</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>115.0138334144193</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386348</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695541</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701351</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784692</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560538</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>120.7871326503953</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="14">
@@ -1615,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072262</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187894</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534124</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144418</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881277</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>145.2857567969008</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695798</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881288</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811842</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>53.08838020946239</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>32.27552175740353</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428533</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="29">
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.16086499484882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>55.52079624060383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428533</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012152</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.569348694472</v>
+        <v>1458.811090838976</v>
       </c>
       <c r="C2" t="n">
-        <v>1122.60683175406</v>
+        <v>1089.848573898564</v>
       </c>
       <c r="D2" t="n">
-        <v>1122.60683175406</v>
+        <v>1089.848573898564</v>
       </c>
       <c r="E2" t="n">
-        <v>1122.60683175406</v>
+        <v>1089.848573898564</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>678.8626691089569</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>263.7902189539533</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,43 +4339,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995485</v>
+        <v>2609.016021139989</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.308520734405</v>
+        <v>2235.55026287891</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.169188758593</v>
+        <v>1845.410930903098</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4470,67 +4470,67 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y4" t="n">
         <v>862.0164446829692</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2222.416181075867</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1853.453664135456</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1495.187965528705</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1109.399712930461</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>698.4138081408535</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>283.3413579858499</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2609.016021139989</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2609.016021139989</v>
       </c>
       <c r="Y5" t="n">
-        <v>1617.939223126803</v>
+        <v>2609.016021139989</v>
       </c>
     </row>
     <row r="6">
@@ -4622,55 +4622,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
         <v>2435.471302619336</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.445961844415</v>
+        <v>290.4564109463983</v>
       </c>
       <c r="C7" t="n">
-        <v>349.5097789165081</v>
+        <v>121.5202280184913</v>
       </c>
       <c r="D7" t="n">
-        <v>199.3931395041724</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>692.8974549201681</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.0944266746548</v>
+        <v>472.104875776638</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.300932605789</v>
+        <v>1990.120246683348</v>
       </c>
       <c r="C8" t="n">
-        <v>806.3384156653772</v>
+        <v>1621.157729742936</v>
       </c>
       <c r="D8" t="n">
-        <v>448.0727170586267</v>
+        <v>1262.892031136186</v>
       </c>
       <c r="E8" t="n">
-        <v>448.0727170586267</v>
+        <v>877.1037785379413</v>
       </c>
       <c r="F8" t="n">
-        <v>441.1272163094232</v>
+        <v>466.1178737483337</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176916</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906802</v>
+        <v>2766.859418723281</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645722</v>
+        <v>2766.859418723281</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>2376.720086747469</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962297</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>631.4698357812251</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>403.4802848832078</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>182.6877057396777</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143766</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277342</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453409</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5241,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703099</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551878</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004716</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406472</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168641</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192612</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466577</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123006</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852892</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591812</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>589.142269263731</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890283</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706083</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427011</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>241.7297566303652</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718105</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741046</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085244</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879357</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842396</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443783</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008481</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551879</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611467</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004717</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406473</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168651</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436273</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075826</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466578</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123007</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852893</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591813</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866616001</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708878</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5700,25 +5700,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2117.354959541326</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1828.279732885523</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679636</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642675</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744658</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011277</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192613</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273915</v>
       </c>
       <c r="J21" t="n">
-        <v>214.9229991561138</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K21" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348534</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703099</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,31 +5977,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6013,16 +6013,16 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.721318527048</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783593</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,10 +6451,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6466,7 +6466,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6919,19 +6919,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,7 +6940,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6958,16 +6958,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7137,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7180,13 +7180,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>149.8982754122182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
         <v>391.8463960427007</v>
@@ -7554,19 +7554,19 @@
         <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7739,7 +7739,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121679</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.721318527048</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713844</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
   </sheetData>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>24.63391537253614</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.294712846224</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856568</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>46.45968844823236</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101218</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>72.11969353038765</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405096</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>164.3170701178259</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E28" t="n">
-        <v>114.1584408891656</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392193839</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>101.1181252153552</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.5487903941883</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>25.7450400779617</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392193839</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856536</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>700713.2648968009</v>
+        <v>700713.264896801</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700713.264896801</v>
+        <v>700713.2648968009</v>
       </c>
     </row>
     <row r="11">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>738937.5928778553</v>
+      </c>
+      <c r="C2" t="n">
         <v>738937.5928778554</v>
-      </c>
-      <c r="C2" t="n">
-        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778555</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="G2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="H2" t="n">
         <v>726431.9397210052</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210055</v>
+      </c>
+      <c r="J2" t="n">
         <v>726431.9397210053</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210056</v>
       </c>
       <c r="K2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="L2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="M2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210054</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210054</v>
+        <v>726431.9397210056</v>
       </c>
       <c r="P2" t="n">
         <v>726431.9397210053</v>
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.298474137503443e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.317367760839196e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040524</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687951</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687947</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.6400068794</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687947</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
       <c r="K4" t="n">
         <v>15436.64000687967</v>
@@ -26450,16 +26450,16 @@
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687972</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791337.837515183</v>
+        <v>-791337.8375151835</v>
       </c>
       <c r="C6" t="n">
-        <v>537406.9082124092</v>
+        <v>537406.9082124096</v>
       </c>
       <c r="D6" t="n">
-        <v>537406.9082124097</v>
+        <v>537406.9082124096</v>
       </c>
       <c r="E6" t="n">
-        <v>284112.9288285064</v>
+        <v>284425.570157428</v>
       </c>
       <c r="F6" t="n">
-        <v>609525.3906358617</v>
+        <v>609838.031964783</v>
       </c>
       <c r="G6" t="n">
-        <v>609525.3906358615</v>
+        <v>609838.0319647831</v>
       </c>
       <c r="H6" t="n">
-        <v>609525.3906358614</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="I6" t="n">
-        <v>609525.3906358615</v>
+        <v>609838.0319647833</v>
       </c>
       <c r="J6" t="n">
-        <v>391994.1882385844</v>
+        <v>392306.8295675054</v>
       </c>
       <c r="K6" t="n">
-        <v>609525.3906358615</v>
+        <v>609838.031964783</v>
       </c>
       <c r="L6" t="n">
-        <v>609525.3906358618</v>
+        <v>609838.0319647832</v>
       </c>
       <c r="M6" t="n">
-        <v>524470.3627003499</v>
+        <v>524783.004029271</v>
       </c>
       <c r="N6" t="n">
-        <v>609525.3906358617</v>
+        <v>609838.0319647829</v>
       </c>
       <c r="O6" t="n">
-        <v>609525.3906358617</v>
+        <v>609838.0319647832</v>
       </c>
       <c r="P6" t="n">
-        <v>609525.3906358615</v>
+        <v>609838.0319647829</v>
       </c>
     </row>
   </sheetData>
@@ -26700,19 +26700,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.123092671879304e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>108.4486973867534</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>140.8793726636942</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.3027978282313</v>
+        <v>160.3027978282307</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>121.5237450221166</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.4732379112244</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>-4.7481824394998e-13</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27779,10 +27779,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>94.15744254776754</v>
       </c>
       <c r="E7" t="n">
-        <v>14.8817498053001</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>376.2374709352325</v>
+        <v>15.31202591046474</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>64.81814676751803</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28335,13 +28335,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.785327524179593e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.970524496384629e-15</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-4.278135253479048e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>9.436340597801518e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.742694960033987e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>-1.646709701048995e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
     </row>
     <row r="29">
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.646709701048995e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I8" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970232</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565744</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157981</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532608</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J21" t="n">
-        <v>249.1672590991333</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643557995</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33186,13 +33186,13 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159425</v>
@@ -33262,10 +33262,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>716.7980286000566</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33444,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34459,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M7" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525787</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.95065951213</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010451</v>
@@ -35585,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324648</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
         <v>426.2724270010451</v>
@@ -35822,10 +35822,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312425</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36059,10 +36059,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J21" t="n">
-        <v>122.3296324324666</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113551</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36296,10 +36296,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36910,10 +36910,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>585.4563165167233</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295353</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
